--- a/lab2/lab2 excel.xlsx
+++ b/lab2/lab2 excel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/Computer_Network/lab2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.qiu\Desktop\Computer_Network\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7480AC3B-0E6D-D240-AD36-1E45566BD2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A13A8-2004-4A6D-A82A-FE05511A416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="2200" windowWidth="38400" windowHeight="21100" xr2:uid="{2132277A-D6FF-BD4A-AA73-7377F688C5DA}"/>
+    <workbookView xWindow="30612" yWindow="-204" windowWidth="30936" windowHeight="16776" xr2:uid="{2132277A-D6FF-BD4A-AA73-7377F688C5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Arrival Rate</t>
   </si>
   <si>
     <t>Mean Delay</t>
+  </si>
+  <si>
+    <t>Mean Delay1</t>
+  </si>
+  <si>
+    <t>Mean Delay2</t>
+  </si>
+  <si>
+    <t>Mean Delay3</t>
+  </si>
+  <si>
+    <t>pb</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,702 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>802125.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>572120.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>331664.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84613.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85142.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>332634.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>572016.84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>801591.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1B6-4F87-8E8A-715487D712EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60824.43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207893.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>317884.15999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400888.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1B6-4F87-8E8A-715487D712EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>401459.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318184.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>207590.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60473.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1B6-4F87-8E8A-715487D712EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1197845312"/>
+        <c:axId val="882927872"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1197845312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="882927872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="882927872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1197845312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1140,6 +1847,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1173,6 +2396,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366890</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>663222</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26890F8B-4CFC-7D62-DEB4-7D486DA1D90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1478,15 +2737,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411C0B2-C649-6742-9D61-7B7A97412524}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="A1:B14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1494,103 +2753,259 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
       <c r="B2">
         <v>1.01</v>
       </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
       <c r="B3">
         <v>1.06</v>
       </c>
+      <c r="K3">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>802125.3</v>
+      </c>
+      <c r="M3">
+        <v>1.5</v>
+      </c>
+      <c r="N3">
+        <v>401459.36</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>200</v>
       </c>
       <c r="B4">
         <v>1.1299999999999999</v>
       </c>
+      <c r="K4">
+        <f>K3+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <v>572120.09</v>
+      </c>
+      <c r="M4">
+        <v>1.46</v>
+      </c>
+      <c r="N4">
+        <v>318184.02</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>300</v>
       </c>
       <c r="B5">
         <v>1.21</v>
       </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K13" si="0">K4+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <v>331664.36</v>
+      </c>
+      <c r="M5">
+        <v>1.48</v>
+      </c>
+      <c r="N5">
+        <v>207590.61</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>400</v>
       </c>
       <c r="B6">
         <v>1.33</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>84613.52</v>
+      </c>
+      <c r="M6">
+        <v>1.59</v>
+      </c>
+      <c r="N6">
+        <f xml:space="preserve"> 60473.51</f>
+        <v>60473.51</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>500</v>
       </c>
       <c r="B7">
         <v>1.5</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="L7">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="M7">
+        <v>1.87</v>
+      </c>
+      <c r="N7">
+        <v>5.52</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>600</v>
       </c>
       <c r="B8">
         <v>1.75</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="L8">
+        <v>5.13</v>
+      </c>
+      <c r="M8">
+        <v>2.57</v>
+      </c>
+      <c r="N8">
+        <v>2.56</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>700</v>
       </c>
       <c r="B9">
         <v>2.17</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="L9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M9">
+        <v>5.58</v>
+      </c>
+      <c r="N9">
+        <v>1.87</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>800</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="L10">
+        <v>85142.399999999994</v>
+      </c>
+      <c r="M10">
+        <v>60824.43</v>
+      </c>
+      <c r="N10">
+        <v>1.59</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>900</v>
       </c>
       <c r="B11">
         <v>5.5</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L11">
+        <v>332634.64</v>
+      </c>
+      <c r="M11">
+        <v>207893.68</v>
+      </c>
+      <c r="N11">
+        <v>1.48</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>950</v>
       </c>
       <c r="B12">
         <v>10.51</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L12">
+        <v>572016.84</v>
+      </c>
+      <c r="M12">
+        <v>317884.15999999997</v>
+      </c>
+      <c r="N12">
+        <v>1.46</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>970</v>
       </c>
       <c r="B13">
         <v>17.2</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="L13">
+        <v>801591.27</v>
+      </c>
+      <c r="M13">
+        <v>400888.47</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>990</v>
       </c>

--- a/lab2/lab2 excel.xlsx
+++ b/lab2/lab2 excel.xlsx
@@ -1,20 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.qiu\Desktop\Computer_Network\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/Computer_Network/lab2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A13A8-2004-4A6D-A82A-FE05511A416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D178CBB-F3E7-E345-BB89-20FC6D223205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-204" windowWidth="30936" windowHeight="16776" xr2:uid="{2132277A-D6FF-BD4A-AA73-7377F688C5DA}"/>
+    <workbookView xWindow="51200" yWindow="2200" windowWidth="38400" windowHeight="21100" xr2:uid="{2132277A-D6FF-BD4A-AA73-7377F688C5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$K$60:$K$92</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$60:$L$92</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$60:$M$92</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$N$60:$N$92</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$K$60:$K$92</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$L$60:$L$92</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$M$60:$M$92</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$N$60:$N$92</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$K$60:$K$92</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$L$60:$L$92</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$M$60:$M$92</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$N$60:$N$92</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$60:$M$92</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$K$60:$K$92</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$L$60:$L$92</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$M$60:$M$92</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$N$60:$N$92</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$B$67:$B$89</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$C$67:$C$89</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$D$67:$D$89</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$N$60:$N$92</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$K$60:$K$92</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$L$60:$L$92</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$M$60:$M$92</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$N$60:$N$92</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$K$60:$K$92</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$60:$L$92</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Arrival Rate</t>
   </si>
@@ -54,6 +83,15 @@
   </si>
   <si>
     <t>pb</t>
+  </si>
+  <si>
+    <t>Mean Delay Data</t>
+  </si>
+  <si>
+    <t>Mean Delay Voice</t>
+  </si>
+  <si>
+    <t>Arrival rate</t>
   </si>
 </sst>
 </file>
@@ -89,8 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,6 +1292,4868 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Delay vs pb</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$26:$K$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$26:$L$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>800098.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>777514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>754975.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>732287.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>709516.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>686557.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>663548.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>640338.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>616946.21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>593626.93000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>570012.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>546381.59</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>522720.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>498988.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>475068.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>450987.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>427055.59</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>402952.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378891.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>354457.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>329967.13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>305504.28000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>280992.92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>256496.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>231835.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>207257.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>182339.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>157491.53</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132683.46</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>107771.38</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82825.119999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57927.62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33021.050000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8121.71</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69.48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27.33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>17.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>59.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7036.09</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32156.43</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>57079.82</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81991.429999999993</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>106754.82</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>131701.98000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>156735.72</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>181571.25</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>206324.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>230914.94</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>255668.03</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>280303.34000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>304814.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>329284.56</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>353840.97</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>378204.75</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>402298.57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>426350.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>450386.91</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>474489.08</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>498460.17</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>522337.38</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>546078.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>569662.93000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>593191.46</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>616454.96</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>639937.81999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>663040.86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>686072.63</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>708918.74</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>731797.48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>754416.57</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>777301.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B243-0841-BE91-D4083EEE2DF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$26:$K$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$26:$M$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.57</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.73</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.23</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5244.13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>23612.07</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>41309.550000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>58485.11</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>75085.45</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91340.88</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>107203.69</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>122527.53</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>137383.35999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>151733.31</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>165799.42000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>179437.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>192654.01</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>205501.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>218083.63</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>230255.77</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>241978.54</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>253411.24</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>264573.33</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>275543.01</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>286049.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>296337.37</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>306361.88</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>315987.95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>325394.27</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>334541.31</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>343529.29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>352128.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>360539.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>368752.11</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>376704.48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>384385.65</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>391997.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B243-0841-BE91-D4083EEE2DF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$26:$K$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33000000000000013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67000000000000037</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68000000000000038</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69000000000000039</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.7000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72000000000000042</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75000000000000044</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77000000000000046</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78000000000000047</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79000000000000048</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.80000000000000049</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82000000000000051</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84000000000000052</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85000000000000053</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86000000000000054</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87000000000000055</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88000000000000056</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.90000000000000058</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91000000000000059</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9300000000000006</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94000000000000061</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000062</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96000000000000063</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97000000000000064</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98000000000000065</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99000000000000066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$26:$N$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>399739.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392415.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>384912.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>377162.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>369229.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>361052.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>352644.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>344039.61</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>335109.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>325977.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316535.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>306839.21999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>296911.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>286621.45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>276044.71000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>265120.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>254008.12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>242520.04</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230806.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>218626.71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>206056.07</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>193171.39</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179998.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>166455.64000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>152442.95000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>138106.51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>123138.14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107806.78</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>92097.89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>75874.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>59141.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41957.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24271.38</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6059.61</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51.77</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.59</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.58</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.47</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.49</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B243-0841-BE91-D4083EEE2DF1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1364388303"/>
+        <c:axId val="905992799"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1364388303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pb</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="905992799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="905992799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1364388303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Delay vs pb[0.34,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 0.66]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mean Delay1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$60:$K$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$60:$L$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>69.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.43</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.67</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-543E-B14E-8482-2E79A34ADCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean Delay2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$60:$K$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$60:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.44</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.54</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.63</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.94</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-543E-B14E-8482-2E79A34ADCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mean Delay3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$60:$K$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.34000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36000000000000015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37000000000000016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.49000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50000000000000022</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51000000000000023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54000000000000026</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.61000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.62000000000000033</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.63000000000000034</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64000000000000035</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.65000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66000000000000036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$N$60:$N$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>51.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.65</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.68</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-543E-B14E-8482-2E79A34ADCF6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="911188559"/>
+        <c:axId val="910660191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="911188559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.66"/>
+          <c:min val="0.34"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>pb</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="910660191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="910660191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="911188559"/>
+        <c:crossesAt val="0.34"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Arrival Rate vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Mean Delay</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay Data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$33:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>126.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>117.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>134.19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>157.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239.76</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>326.23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>506.81</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1148.4000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4809-E344-8D7F-6FD5B20486B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean Delay Voice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$33:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$33:$D$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64.930000000000007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>118.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>151.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>287.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>468.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1110.1600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4809-E344-8D7F-6FD5B20486B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="931800255"/>
+        <c:axId val="908672943"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="931800255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="908672943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="908672943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931800255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mean Delay </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>vs Arrival Rate</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mean Delay Data</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$67:$C$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>128.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.07</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>109.81</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>124.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>143.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>168.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>204.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>259.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>354.05</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>552.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1256.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-841F-DC49-A0AB-71838BFAE366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mean Delay Voice</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$67:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$67:$D$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31.44</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>36.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>38.549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-841F-DC49-A0AB-71838BFAE366}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="931993151"/>
+        <c:axId val="970483423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="931993151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="970483423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="970483423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931993151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1331,6 +6234,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2344,6 +7407,2070 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2432,6 +9559,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>321734</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9CDE725-D9C1-71FB-E560-A8D79BFE3F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369000</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>88400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D599469-634E-DB28-B0E4-B49864F2C466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>842433</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C57BF25-0A9F-A106-5506-7CE49E79E3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495638</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>61364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>796841</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>174652</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A91106-4E41-1FE7-4F30-9AD29AE6D704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2737,15 +10008,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F411C0B2-C649-6742-9D61-7B7A97412524}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="108" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="164" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2753,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2773,7 +10048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2794,7 +10069,7 @@
         <v>401459.36</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
@@ -2815,7 +10090,7 @@
         <v>318184.02</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>300</v>
       </c>
@@ -2836,7 +10111,7 @@
         <v>207590.61</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>400</v>
       </c>
@@ -2858,7 +10133,7 @@
         <v>60473.51</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -2879,7 +10154,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>600</v>
       </c>
@@ -2900,7 +10175,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>700</v>
       </c>
@@ -2921,7 +10196,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>800</v>
       </c>
@@ -2942,7 +10217,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>900</v>
       </c>
@@ -2963,7 +10238,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>950</v>
       </c>
@@ -2984,7 +10259,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>970</v>
       </c>
@@ -3005,12 +10280,2092 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>990</v>
       </c>
       <c r="B14">
         <v>51.11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <v>800098.86</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N26" s="1">
+        <v>399739.78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K27" s="1">
+        <f>K26+0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="L27" s="1">
+        <v>777514</v>
+      </c>
+      <c r="M27" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="N27" s="1">
+        <v>392415.05</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K28" s="1">
+        <f t="shared" ref="K28:K91" si="1">K27+0.01</f>
+        <v>0.02</v>
+      </c>
+      <c r="L28" s="1">
+        <v>754975.51</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="N28" s="1">
+        <v>384912.75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="L29" s="1">
+        <v>732287.53</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="N29" s="1">
+        <v>377162.97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="L30" s="1">
+        <v>709516.45</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="N30" s="1">
+        <v>369229.41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="L31" s="1">
+        <v>686557.75</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="N31" s="1">
+        <v>361052.71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>663548.88</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N32" s="1">
+        <v>352644.47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>126.98</v>
+      </c>
+      <c r="D33">
+        <v>1.78</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>640338.63</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N33" s="1">
+        <v>344039.61</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>41.99</v>
+      </c>
+      <c r="D34">
+        <v>3.58</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="L34" s="1">
+        <v>616946.21</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N34" s="1">
+        <v>335109.39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>43.98</v>
+      </c>
+      <c r="D35">
+        <v>5.56</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="L35" s="1">
+        <v>593626.93000000005</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N35" s="1">
+        <v>325977.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>46.13</v>
+      </c>
+      <c r="D36">
+        <v>7.74</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>570012.13</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N36" s="1">
+        <v>316535.3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>48.55</v>
+      </c>
+      <c r="D37">
+        <v>10.14</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="L37" s="1">
+        <v>546381.59</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="N37" s="1">
+        <v>306839.21999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>51.24</v>
+      </c>
+      <c r="D38">
+        <v>12.82</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11999999999999998</v>
+      </c>
+      <c r="L38" s="1">
+        <v>522720.2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="N38" s="1">
+        <v>296911.68</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>54.2</v>
+      </c>
+      <c r="D39">
+        <v>15.8</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="L39" s="1">
+        <v>498988.25</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="N39" s="1">
+        <v>286621.45</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>57.65</v>
+      </c>
+      <c r="D40">
+        <v>19.21</v>
+      </c>
+      <c r="K40" s="1">
+        <f>K39+0.01</f>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="L40" s="1">
+        <v>475068.31</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N40" s="1">
+        <v>276044.71000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>61.55</v>
+      </c>
+      <c r="D41">
+        <v>23.06</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="L41" s="1">
+        <v>450987.67</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N41" s="1">
+        <v>265120.55</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>66.03</v>
+      </c>
+      <c r="D42">
+        <v>27.5</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="L42" s="1">
+        <v>427055.59</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N42" s="1">
+        <v>254008.12</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>71.13</v>
+      </c>
+      <c r="D43">
+        <v>32.6</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="L43" s="1">
+        <v>402952.76</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N43" s="1">
+        <v>242520.04</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>77.14</v>
+      </c>
+      <c r="D44">
+        <v>38.58</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="L44" s="1">
+        <v>378891.15</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="N44" s="1">
+        <v>230806.21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>84.33</v>
+      </c>
+      <c r="D45">
+        <v>45.71</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="L45" s="1">
+        <v>354457.87</v>
+      </c>
+      <c r="M45" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="N45" s="1">
+        <v>218626.71</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>92.96</v>
+      </c>
+      <c r="D46">
+        <v>54.31</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="L46" s="1">
+        <v>329967.13</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="N46" s="1">
+        <v>206056.07</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>103.66</v>
+      </c>
+      <c r="D47">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21000000000000005</v>
+      </c>
+      <c r="L47" s="1">
+        <v>305504.28000000003</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="N47" s="1">
+        <v>193171.39</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>117.03</v>
+      </c>
+      <c r="D48">
+        <v>78.25</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.22000000000000006</v>
+      </c>
+      <c r="L48" s="1">
+        <v>280992.92</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="N48" s="1">
+        <v>179998.32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>134.19</v>
+      </c>
+      <c r="D49">
+        <v>95.38</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23000000000000007</v>
+      </c>
+      <c r="L49" s="1">
+        <v>256496.5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N49" s="1">
+        <v>166455.64000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>157.36000000000001</v>
+      </c>
+      <c r="D50">
+        <v>118.53</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000007</v>
+      </c>
+      <c r="L50" s="1">
+        <v>231835.23</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="N50" s="1">
+        <v>152442.95000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>190.09</v>
+      </c>
+      <c r="D51">
+        <v>151.21</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="L51" s="1">
+        <v>207257.72</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="N51" s="1">
+        <v>138106.51</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>239.76</v>
+      </c>
+      <c r="D52">
+        <v>200.88</v>
+      </c>
+      <c r="K52" s="1">
+        <f>K51+0.01</f>
+        <v>0.26000000000000006</v>
+      </c>
+      <c r="L52" s="1">
+        <v>182339.18</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="N52" s="1">
+        <v>123138.14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>326.23</v>
+      </c>
+      <c r="D53">
+        <v>287.37</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27000000000000007</v>
+      </c>
+      <c r="L53" s="1">
+        <v>157491.53</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="N53" s="1">
+        <v>107806.78</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>506.81</v>
+      </c>
+      <c r="D54">
+        <v>468.1</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000008</v>
+      </c>
+      <c r="L54" s="1">
+        <v>132683.46</v>
+      </c>
+      <c r="M54" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="N54" s="1">
+        <v>92097.89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>1148.4000000000001</v>
+      </c>
+      <c r="D55">
+        <v>1110.1600000000001</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.29000000000000009</v>
+      </c>
+      <c r="L55" s="1">
+        <v>107771.38</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="N55" s="1">
+        <v>75874.89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>580096.18999999994</v>
+      </c>
+      <c r="D56">
+        <v>580124.41</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.3000000000000001</v>
+      </c>
+      <c r="L56" s="1">
+        <v>82825.119999999995</v>
+      </c>
+      <c r="M56" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="N56" s="1">
+        <v>59141.37</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>3272872.13</v>
+      </c>
+      <c r="D57">
+        <v>3273095.25</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="L57" s="1">
+        <v>57927.62</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="N57" s="1">
+        <v>41957.8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>5893830.3099999996</v>
+      </c>
+      <c r="D58">
+        <v>5895363.0199999996</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="L58" s="1">
+        <v>33021.050000000003</v>
+      </c>
+      <c r="M58" s="1">
+        <v>1.63</v>
+      </c>
+      <c r="N58" s="1">
+        <v>24271.38</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>8444998.9600000009</v>
+      </c>
+      <c r="D59">
+        <v>8447887.1699999999</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="L59" s="1">
+        <v>8121.71</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="N59" s="1">
+        <v>6059.61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>10930242.27</v>
+      </c>
+      <c r="D60">
+        <v>10933532.84</v>
+      </c>
+      <c r="K60" s="1">
+        <f t="shared" si="1"/>
+        <v>0.34000000000000014</v>
+      </c>
+      <c r="L60" s="1">
+        <v>69.48</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="N60" s="1">
+        <v>51.77</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>13352285.26</v>
+      </c>
+      <c r="D61">
+        <v>13355628.949999999</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000014</v>
+      </c>
+      <c r="L61" s="1">
+        <v>27.33</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="N61" s="1">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>29</v>
+      </c>
+      <c r="C62">
+        <v>15711941.460000001</v>
+      </c>
+      <c r="D62">
+        <v>15716868.390000001</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="1"/>
+        <v>0.36000000000000015</v>
+      </c>
+      <c r="L62" s="1">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="M62" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="N62" s="1">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>18013024.710000001</v>
+      </c>
+      <c r="D63">
+        <v>18018346.629999999</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="1"/>
+        <v>0.37000000000000016</v>
+      </c>
+      <c r="L63" s="1">
+        <v>13.29</v>
+      </c>
+      <c r="M63" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="N63" s="1">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K64" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38000000000000017</v>
+      </c>
+      <c r="L64" s="1">
+        <v>10.79</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="N64" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K65" s="1">
+        <f>K64+0.01</f>
+        <v>0.39000000000000018</v>
+      </c>
+      <c r="L65" s="1">
+        <v>9.17</v>
+      </c>
+      <c r="M65" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="N65" s="1">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K66" s="1">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="L66" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="M66" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>128.75</v>
+      </c>
+      <c r="D67">
+        <v>1.78</v>
+      </c>
+      <c r="K67" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4100000000000002</v>
+      </c>
+      <c r="L67" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="M67" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="N67" s="1">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>42.16</v>
+      </c>
+      <c r="D68">
+        <v>3.5</v>
+      </c>
+      <c r="K68" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42000000000000021</v>
+      </c>
+      <c r="L68" s="1">
+        <v>6.69</v>
+      </c>
+      <c r="M68" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="N68" s="1">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>44.35</v>
+      </c>
+      <c r="D69">
+        <v>5.23</v>
+      </c>
+      <c r="K69" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43000000000000022</v>
+      </c>
+      <c r="L69" s="1">
+        <v>6.24</v>
+      </c>
+      <c r="M69" s="1">
+        <v>2</v>
+      </c>
+      <c r="N69" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>46.71</v>
+      </c>
+      <c r="D70">
+        <v>6.96</v>
+      </c>
+      <c r="K70" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000022</v>
+      </c>
+      <c r="L70" s="1">
+        <v>5.89</v>
+      </c>
+      <c r="M70" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="N70" s="1">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>49.36</v>
+      </c>
+      <c r="D71">
+        <v>8.68</v>
+      </c>
+      <c r="K71" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45000000000000023</v>
+      </c>
+      <c r="L71" s="1">
+        <v>5.63</v>
+      </c>
+      <c r="M71" s="1">
+        <v>2.11</v>
+      </c>
+      <c r="N71" s="1">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>52.31</v>
+      </c>
+      <c r="D72">
+        <v>10.42</v>
+      </c>
+      <c r="K72" s="1">
+        <f t="shared" si="1"/>
+        <v>0.46000000000000024</v>
+      </c>
+      <c r="L72" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="M72" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="N72" s="1">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>55.56</v>
+      </c>
+      <c r="D73">
+        <v>12.13</v>
+      </c>
+      <c r="K73" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47000000000000025</v>
+      </c>
+      <c r="L73" s="1">
+        <v>5.28</v>
+      </c>
+      <c r="M73" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="N73" s="1">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>59.34</v>
+      </c>
+      <c r="D74">
+        <v>13.88</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48000000000000026</v>
+      </c>
+      <c r="L74" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="M74" s="1">
+        <v>2.34</v>
+      </c>
+      <c r="N74" s="1">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>63.62</v>
+      </c>
+      <c r="D75">
+        <v>15.62</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="1"/>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="L75" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2.44</v>
+      </c>
+      <c r="N75" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>9</v>
+      </c>
+      <c r="C76">
+        <v>68.53</v>
+      </c>
+      <c r="D76">
+        <v>17.37</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="L76" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M76" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="N76" s="1">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>74.13</v>
+      </c>
+      <c r="D77">
+        <v>19.12</v>
+      </c>
+      <c r="K77" s="1">
+        <f>K76+0.01</f>
+        <v>0.51000000000000023</v>
+      </c>
+      <c r="L77" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="N77" s="1">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>11</v>
+      </c>
+      <c r="C78">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="D78">
+        <v>20.85</v>
+      </c>
+      <c r="K78" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52000000000000024</v>
+      </c>
+      <c r="L78" s="1">
+        <v>5.18</v>
+      </c>
+      <c r="M78" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="N78" s="1">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>88.6</v>
+      </c>
+      <c r="D79">
+        <v>22.62</v>
+      </c>
+      <c r="K79" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53000000000000025</v>
+      </c>
+      <c r="L79" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="M79" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="N79" s="1">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>13</v>
+      </c>
+      <c r="C80">
+        <v>98.07</v>
+      </c>
+      <c r="D80">
+        <v>24.38</v>
+      </c>
+      <c r="K80" s="1">
+        <f t="shared" si="1"/>
+        <v>0.54000000000000026</v>
+      </c>
+      <c r="L80" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="M80" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="N80" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>14</v>
+      </c>
+      <c r="C81">
+        <v>109.81</v>
+      </c>
+      <c r="D81">
+        <v>26.13</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="L81" s="1">
+        <v>5.62</v>
+      </c>
+      <c r="M81" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="N81" s="1">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>124.48</v>
+      </c>
+      <c r="D82">
+        <v>27.9</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000028</v>
+      </c>
+      <c r="L82" s="1">
+        <v>5.88</v>
+      </c>
+      <c r="M82" s="1">
+        <v>3.63</v>
+      </c>
+      <c r="N82" s="1">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="D83">
+        <v>29.66</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="L83" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="M83" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="N83" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <v>168.74</v>
+      </c>
+      <c r="D84">
+        <v>31.44</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58000000000000029</v>
+      </c>
+      <c r="L84" s="1">
+        <v>6.67</v>
+      </c>
+      <c r="M84" s="1">
+        <v>4.33</v>
+      </c>
+      <c r="N84" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <v>204.65</v>
+      </c>
+      <c r="D85">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5900000000000003</v>
+      </c>
+      <c r="L85" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="M85" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>259.16000000000003</v>
+      </c>
+      <c r="D86">
+        <v>34.979999999999997</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="L86" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="M86" s="1">
+        <v>5.44</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>20</v>
+      </c>
+      <c r="C87">
+        <v>354.05</v>
+      </c>
+      <c r="D87">
+        <v>36.75</v>
+      </c>
+      <c r="K87" s="1">
+        <f t="shared" si="1"/>
+        <v>0.61000000000000032</v>
+      </c>
+      <c r="L87" s="1">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="M87" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>21</v>
+      </c>
+      <c r="C88">
+        <v>552.22</v>
+      </c>
+      <c r="D88">
+        <v>38.549999999999997</v>
+      </c>
+      <c r="K88" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62000000000000033</v>
+      </c>
+      <c r="L88" s="1">
+        <v>10.67</v>
+      </c>
+      <c r="M88" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>1256.33</v>
+      </c>
+      <c r="D89">
+        <v>40.32</v>
+      </c>
+      <c r="K89" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63000000000000034</v>
+      </c>
+      <c r="L89" s="1">
+        <v>13.12</v>
+      </c>
+      <c r="M89" s="1">
+        <v>9.36</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>23</v>
+      </c>
+      <c r="C90">
+        <v>632468.89</v>
+      </c>
+      <c r="D90">
+        <v>41.73</v>
+      </c>
+      <c r="K90" s="1">
+        <f>K89+0.01</f>
+        <v>0.64000000000000035</v>
+      </c>
+      <c r="L90" s="1">
+        <v>17.37</v>
+      </c>
+      <c r="M90" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>24</v>
+      </c>
+      <c r="C91">
+        <v>3466625.57</v>
+      </c>
+      <c r="D91">
+        <v>41.73</v>
+      </c>
+      <c r="K91" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="L91" s="1">
+        <v>26.88</v>
+      </c>
+      <c r="M91" s="1">
+        <v>19.73</v>
+      </c>
+      <c r="N91" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>6074968.9100000001</v>
+      </c>
+      <c r="D92">
+        <v>41.73</v>
+      </c>
+      <c r="K92" s="1">
+        <f t="shared" ref="K92:K104" si="2">K91+0.01</f>
+        <v>0.66000000000000036</v>
+      </c>
+      <c r="L92" s="1">
+        <v>59.6</v>
+      </c>
+      <c r="M92" s="1">
+        <v>44.23</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>8482820.75</v>
+      </c>
+      <c r="D93">
+        <v>41.73</v>
+      </c>
+      <c r="K93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.67000000000000037</v>
+      </c>
+      <c r="L93" s="1">
+        <v>7036.09</v>
+      </c>
+      <c r="M93" s="1">
+        <v>5244.13</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>27</v>
+      </c>
+      <c r="C94">
+        <v>10712326.960000001</v>
+      </c>
+      <c r="D94">
+        <v>41.74</v>
+      </c>
+      <c r="K94" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68000000000000038</v>
+      </c>
+      <c r="L94" s="1">
+        <v>32156.43</v>
+      </c>
+      <c r="M94" s="1">
+        <v>23612.07</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>28</v>
+      </c>
+      <c r="C95">
+        <v>12782735.029999999</v>
+      </c>
+      <c r="D95">
+        <v>41.74</v>
+      </c>
+      <c r="K95" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="L95" s="1">
+        <v>57079.82</v>
+      </c>
+      <c r="M95" s="1">
+        <v>41309.550000000003</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>29</v>
+      </c>
+      <c r="C96">
+        <v>14710356.33</v>
+      </c>
+      <c r="D96">
+        <v>41.74</v>
+      </c>
+      <c r="K96" s="1">
+        <f t="shared" si="2"/>
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="L96" s="1">
+        <v>81991.429999999993</v>
+      </c>
+      <c r="M96" s="1">
+        <v>58485.11</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97">
+        <v>16509469.550000001</v>
+      </c>
+      <c r="D97">
+        <v>41.74</v>
+      </c>
+      <c r="K97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="L97" s="1">
+        <v>106754.82</v>
+      </c>
+      <c r="M97" s="1">
+        <v>75085.45</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K98" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72000000000000042</v>
+      </c>
+      <c r="L98" s="1">
+        <v>131701.98000000001</v>
+      </c>
+      <c r="M98" s="1">
+        <v>91340.88</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K99" s="1">
+        <f t="shared" si="2"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="L99" s="1">
+        <v>156735.72</v>
+      </c>
+      <c r="M99" s="1">
+        <v>107203.69</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K100" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74000000000000044</v>
+      </c>
+      <c r="L100" s="1">
+        <v>181571.25</v>
+      </c>
+      <c r="M100" s="1">
+        <v>122527.53</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K101" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75000000000000044</v>
+      </c>
+      <c r="L101" s="1">
+        <v>206324.76</v>
+      </c>
+      <c r="M101" s="1">
+        <v>137383.35999999999</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K102" s="1">
+        <f>K101+0.01</f>
+        <v>0.76000000000000045</v>
+      </c>
+      <c r="L102" s="1">
+        <v>230914.94</v>
+      </c>
+      <c r="M102" s="1">
+        <v>151733.31</v>
+      </c>
+      <c r="N102" s="1">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K103" s="1">
+        <f t="shared" si="2"/>
+        <v>0.77000000000000046</v>
+      </c>
+      <c r="L103" s="1">
+        <v>255668.03</v>
+      </c>
+      <c r="M103" s="1">
+        <v>165799.42000000001</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K104" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78000000000000047</v>
+      </c>
+      <c r="L104" s="1">
+        <v>280303.34000000003</v>
+      </c>
+      <c r="M104" s="1">
+        <v>179437.36</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K105" s="1">
+        <f>K104+0.01</f>
+        <v>0.79000000000000048</v>
+      </c>
+      <c r="L105" s="1">
+        <v>304814.7</v>
+      </c>
+      <c r="M105" s="1">
+        <v>192654.01</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K106" s="1">
+        <f t="shared" ref="K106:K123" si="3">K105+0.01</f>
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="L106" s="1">
+        <v>329284.56</v>
+      </c>
+      <c r="M106" s="1">
+        <v>205501.9</v>
+      </c>
+      <c r="N106" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K107" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="L107" s="1">
+        <v>353840.97</v>
+      </c>
+      <c r="M107" s="1">
+        <v>218083.63</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K108" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82000000000000051</v>
+      </c>
+      <c r="L108" s="1">
+        <v>378204.75</v>
+      </c>
+      <c r="M108" s="1">
+        <v>230255.77</v>
+      </c>
+      <c r="N108" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K109" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83000000000000052</v>
+      </c>
+      <c r="L109" s="1">
+        <v>402298.57</v>
+      </c>
+      <c r="M109" s="1">
+        <v>241978.54</v>
+      </c>
+      <c r="N109" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K110" s="1">
+        <f t="shared" si="3"/>
+        <v>0.84000000000000052</v>
+      </c>
+      <c r="L110" s="1">
+        <v>426350.4</v>
+      </c>
+      <c r="M110" s="1">
+        <v>253411.24</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K111" s="1">
+        <f t="shared" si="3"/>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="L111" s="1">
+        <v>450386.91</v>
+      </c>
+      <c r="M111" s="1">
+        <v>264573.33</v>
+      </c>
+      <c r="N111" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K112" s="1">
+        <f t="shared" si="3"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="L112" s="1">
+        <v>474489.08</v>
+      </c>
+      <c r="M112" s="1">
+        <v>275543.01</v>
+      </c>
+      <c r="N112" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="113" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K113" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87000000000000055</v>
+      </c>
+      <c r="L113" s="1">
+        <v>498460.17</v>
+      </c>
+      <c r="M113" s="1">
+        <v>286049.5</v>
+      </c>
+      <c r="N113" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="114" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K114" s="1">
+        <f t="shared" si="3"/>
+        <v>0.88000000000000056</v>
+      </c>
+      <c r="L114" s="1">
+        <v>522337.38</v>
+      </c>
+      <c r="M114" s="1">
+        <v>296337.37</v>
+      </c>
+      <c r="N114" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="115" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K115" s="1">
+        <f t="shared" si="3"/>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="L115" s="1">
+        <v>546078.11</v>
+      </c>
+      <c r="M115" s="1">
+        <v>306361.88</v>
+      </c>
+      <c r="N115" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="116" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K116" s="1">
+        <f t="shared" si="3"/>
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="L116" s="1">
+        <v>569662.93000000005</v>
+      </c>
+      <c r="M116" s="1">
+        <v>315987.95</v>
+      </c>
+      <c r="N116" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="117" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K117" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91000000000000059</v>
+      </c>
+      <c r="L117" s="1">
+        <v>593191.46</v>
+      </c>
+      <c r="M117" s="1">
+        <v>325394.27</v>
+      </c>
+      <c r="N117" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="118" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K118" s="1">
+        <f>K117+0.01</f>
+        <v>0.9200000000000006</v>
+      </c>
+      <c r="L118" s="1">
+        <v>616454.96</v>
+      </c>
+      <c r="M118" s="1">
+        <v>334541.31</v>
+      </c>
+      <c r="N118" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="119" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K119" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="L119" s="1">
+        <v>639937.81999999995</v>
+      </c>
+      <c r="M119" s="1">
+        <v>343529.29</v>
+      </c>
+      <c r="N119" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="120" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K120" s="1">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000061</v>
+      </c>
+      <c r="L120" s="1">
+        <v>663040.86</v>
+      </c>
+      <c r="M120" s="1">
+        <v>352128.15</v>
+      </c>
+      <c r="N120" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="121" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K121" s="1">
+        <f t="shared" si="3"/>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="L121" s="1">
+        <v>686072.63</v>
+      </c>
+      <c r="M121" s="1">
+        <v>360539.05</v>
+      </c>
+      <c r="N121" s="1">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="122" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K122" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96000000000000063</v>
+      </c>
+      <c r="L122" s="1">
+        <v>708918.74</v>
+      </c>
+      <c r="M122" s="1">
+        <v>368752.11</v>
+      </c>
+      <c r="N122" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="123" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K123" s="1">
+        <f t="shared" si="3"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="L123" s="1">
+        <v>731797.48</v>
+      </c>
+      <c r="M123" s="1">
+        <v>376704.48</v>
+      </c>
+      <c r="N123" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="124" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K124" s="1">
+        <f>K123+0.01</f>
+        <v>0.98000000000000065</v>
+      </c>
+      <c r="L124" s="1">
+        <v>754416.57</v>
+      </c>
+      <c r="M124" s="1">
+        <v>384385.65</v>
+      </c>
+      <c r="N124" s="1">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="125" spans="11:14" x14ac:dyDescent="0.2">
+      <c r="K125" s="1">
+        <f t="shared" ref="K125:K126" si="4">K124+0.01</f>
+        <v>0.99000000000000066</v>
+      </c>
+      <c r="L125" s="1">
+        <v>777301.62</v>
+      </c>
+      <c r="M125" s="1">
+        <v>391997.32</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>
